--- a/docs/docs/docs/docs/docs/docs/download/th-kim310_partdb.xlsx
+++ b/docs/docs/docs/docs/docs/docs/download/th-kim310_partdb.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="4725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="4725" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igem_team" sheetId="1" r:id="rId1"/>
     <sheet name="igme_part" sheetId="2" r:id="rId2"/>
-    <sheet name="igem_obs" sheetId="3" r:id="rId3"/>
-    <sheet name="igem_device" sheetId="4" r:id="rId4"/>
+    <sheet name="igem_device" sheetId="4" r:id="rId3"/>
+    <sheet name="igem_obs" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,64 +261,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>device_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>device_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev03</t>
-  </si>
-  <si>
-    <t>dev03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -680,19 +698,20 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.375" customWidth="1"/>
     <col min="5" max="5" width="43.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -709,8 +728,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -718,7 +737,7 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -726,8 +745,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -735,7 +754,7 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2019</v>
       </c>
       <c r="E3" t="s">
@@ -743,8 +762,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -752,7 +771,7 @@
       <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
@@ -772,21 +791,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -805,15 +825,15 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -827,19 +847,19 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -853,19 +873,19 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -879,19 +899,19 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -905,19 +925,19 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -931,19 +951,19 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -957,19 +977,19 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -983,11 +1003,11 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
@@ -1011,14 +1031,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:J12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
@@ -1027,7 +1116,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1089,8 +1178,8 @@
       <c r="I2" s="3">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>73</v>
+      <c r="J2" s="3">
+        <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -1098,7 +1187,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -1124,8 +1213,8 @@
       <c r="I3" s="3">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
-        <v>73</v>
+      <c r="J3" s="3">
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -1133,7 +1222,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -1159,8 +1248,8 @@
       <c r="I4" s="3">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>73</v>
+      <c r="J4" s="3">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -1168,7 +1257,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -1194,8 +1283,8 @@
       <c r="I5" s="3">
         <v>37</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
+      <c r="J5" s="3">
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -1203,7 +1292,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -1229,8 +1318,8 @@
       <c r="I6" s="3">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
-        <v>73</v>
+      <c r="J6" s="3">
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -1238,7 +1327,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1264,8 +1353,8 @@
       <c r="I7" s="3">
         <v>37</v>
       </c>
-      <c r="J7" t="s">
-        <v>73</v>
+      <c r="J7" s="3">
+        <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -1273,7 +1362,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -1299,8 +1388,8 @@
       <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
-        <v>75</v>
+      <c r="J8" s="3">
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>50</v>
@@ -1308,7 +1397,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -1334,8 +1423,8 @@
       <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>75</v>
+      <c r="J9" s="3">
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>50</v>
@@ -1343,7 +1432,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
@@ -1369,8 +1458,8 @@
       <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
-        <v>75</v>
+      <c r="J10" s="3">
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>50</v>
@@ -1378,7 +1467,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1404,8 +1493,8 @@
       <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
-        <v>75</v>
+      <c r="J11" s="3">
+        <v>2</v>
       </c>
       <c r="K11" t="s">
         <v>50</v>
@@ -1413,7 +1502,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -1439,8 +1528,8 @@
       <c r="I12" s="3">
         <v>37</v>
       </c>
-      <c r="J12" t="s">
-        <v>77</v>
+      <c r="J12" s="3">
+        <v>3</v>
       </c>
       <c r="K12" t="s">
         <v>59</v>
@@ -1451,67 +1540,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>